--- a/Parte Escrita TP3/Lista de chequeo de estilo - Tarea 3.xlsx
+++ b/Parte Escrita TP3/Lista de chequeo de estilo - Tarea 3.xlsx
@@ -1,18 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr date1904="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandra Víctor\Documents\GitHub\Tarea-3-Estructuras-de-Datos\Parte Escrita TP3\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1 - Lista de chequeo de e" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet 1 - Lista de chequeo de e" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Lista de chequeo de estilo</t>
   </si>
@@ -39,7 +46,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -56,7 +63,7 @@
     </r>
     <r>
       <rPr>
-        <i val="1"/>
+        <i/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -83,7 +90,7 @@
     </r>
     <r>
       <rPr>
-        <i val="1"/>
+        <i/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -100,7 +107,7 @@
     </r>
     <r>
       <rPr>
-        <i val="1"/>
+        <i/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -160,7 +167,7 @@
     </r>
     <r>
       <rPr>
-        <i val="1"/>
+        <i/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -187,7 +194,7 @@
     </r>
     <r>
       <rPr>
-        <i val="1"/>
+        <i/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -204,7 +211,7 @@
     </r>
     <r>
       <rPr>
-        <i val="1"/>
+        <i/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -227,10 +234,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="59" formatCode="#,###.##"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,###.##"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -244,25 +250,25 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="13"/>
       <color indexed="9"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="11"/>
       <color indexed="10"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <i val="1"/>
+      <i/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
@@ -300,45 +306,31 @@
       <left style="thin">
         <color indexed="12"/>
       </left>
-      <right>
-        <color indexed="12"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="12"/>
       </top>
-      <bottom>
-        <color indexed="12"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left>
-        <color indexed="12"/>
-      </left>
-      <right>
-        <color indexed="12"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
         <color indexed="12"/>
       </top>
-      <bottom>
-        <color indexed="12"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left>
-        <color indexed="12"/>
-      </left>
+      <left/>
       <right style="thin">
         <color indexed="12"/>
       </right>
       <top style="thin">
         <color indexed="12"/>
       </top>
-      <bottom>
-        <color indexed="12"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -348,9 +340,7 @@
       <right style="thin">
         <color indexed="12"/>
       </right>
-      <top>
-        <color indexed="12"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="12"/>
       </bottom>
@@ -403,64 +393,64 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="18">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="59" fontId="1" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="59" fontId="1" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="59" fontId="1" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="59" fontId="4" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -470,26 +460,85 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ff2c402f"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ff668f6d"/>
-      <rgbColor rgb="fff4eddb"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FF2C402F"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FF668F6D"/>
+      <rgbColor rgb="FFF4EDDB"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -615,7 +664,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -624,7 +673,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -633,7 +682,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -697,8 +746,8 @@
     <a:spDef>
       <a:spPr>
         <a:blipFill rotWithShape="1">
-          <a:blip r:embed="rId1"/>
-          <a:srcRect l="0" t="0" r="0" b="0"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:srcRect/>
           <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
         </a:blipFill>
         <a:ln w="12700" cap="flat">
@@ -706,7 +755,7 @@
           <a:miter lim="400000"/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="50000"/>
             </a:srgbClr>
@@ -714,7 +763,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -733,7 +782,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -741,7 +790,7 @@
               <a:srgbClr val="FFFFFF"/>
             </a:solidFill>
             <a:effectLst>
-              <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="25400" dist="23998" dir="2700000">
+              <a:outerShdw blurRad="25400" dist="23998" dir="2700000" rotWithShape="0">
                 <a:srgbClr val="000000">
                   <a:alpha val="31034"/>
                 </a:srgbClr>
@@ -769,7 +818,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -795,7 +844,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -821,7 +870,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -847,7 +896,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -873,7 +922,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -899,7 +948,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -925,7 +974,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -951,7 +1000,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -977,7 +1026,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -990,9 +1039,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1009,7 +1064,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1028,7 +1083,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1054,7 +1109,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1080,7 +1135,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1106,7 +1161,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1132,7 +1187,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1158,7 +1213,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1184,7 +1239,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1210,7 +1265,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1236,7 +1291,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1262,7 +1317,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1275,9 +1330,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1291,7 +1352,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1310,7 +1371,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1340,7 +1401,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1366,7 +1427,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1392,7 +1453,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1418,7 +1479,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1444,7 +1505,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1470,7 +1531,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1496,7 +1557,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1522,7 +1583,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1548,7 +1609,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1561,290 +1622,299 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:D18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV18"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="61.675" defaultRowHeight="17.1" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="61.7109375" defaultRowHeight="17.100000000000001" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="61.6875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.52344" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.2344" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.65625" style="1" customWidth="1"/>
-    <col min="5" max="256" width="61.6875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="61.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" style="1" customWidth="1"/>
+    <col min="5" max="256" width="61.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="19.6" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:4" ht="19.7" customHeight="1">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
     </row>
-    <row r="2" ht="17.65" customHeight="1">
-      <c r="A2" t="s" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="4">
+    <row r="2" spans="1:4" ht="17.649999999999999" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="4">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s" s="5">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="42.65" customHeight="1">
-      <c r="A3" t="s" s="6">
+    <row r="3" spans="1:4" ht="50.25" customHeight="1">
+      <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="7">
-        <v>1</v>
-      </c>
-      <c r="C3" t="b" s="8">
+      <c r="B3" s="6">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" s="7">
+        <f t="shared" ref="D3:D17" si="0">IF(C3,B3,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="77.650000000000006" customHeight="1">
+      <c r="A4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="9">
+        <v>1</v>
+      </c>
+      <c r="C4" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" s="10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16.7" customHeight="1">
+      <c r="A5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="9">
+        <v>1</v>
+      </c>
+      <c r="C5" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" s="10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="52.7" customHeight="1">
+      <c r="A6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="9">
+        <v>1</v>
+      </c>
+      <c r="C6" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" s="10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="28.7" customHeight="1">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="9">
+        <v>1</v>
+      </c>
+      <c r="C7" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" s="10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="16.7" customHeight="1">
+      <c r="A8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="9">
+        <v>1</v>
+      </c>
+      <c r="C8" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" s="10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="40.700000000000003" customHeight="1">
+      <c r="A9" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="9">
+        <v>1</v>
+      </c>
+      <c r="C9" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9" s="10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="28.7" customHeight="1">
+      <c r="A10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="9">
+        <v>1</v>
+      </c>
+      <c r="C10" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D10" s="10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="40.700000000000003" customHeight="1">
+      <c r="A11" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="9">
+        <v>1</v>
+      </c>
+      <c r="C11" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D11" s="10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="28.7" customHeight="1">
+      <c r="A12" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="9">
+        <v>1</v>
+      </c>
+      <c r="C12" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D12" s="10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="28.7" customHeight="1">
+      <c r="A13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="9">
+        <v>1</v>
+      </c>
+      <c r="C13" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="40.700000000000003" customHeight="1">
+      <c r="A14" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="9">
+        <v>1</v>
+      </c>
+      <c r="C14" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D14" s="10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="66.75" customHeight="1">
+      <c r="A15" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="9">
+        <v>1</v>
+      </c>
+      <c r="C15" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D15" s="10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="29.65" customHeight="1">
+      <c r="A16" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="9">
+        <v>1</v>
+      </c>
+      <c r="C16" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D16" s="10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="31.7" customHeight="1">
+      <c r="A17" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="12">
+        <v>1</v>
+      </c>
+      <c r="C17" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="D3" s="8">
-        <f>IF(C3,B3,0)</f>
+      <c r="D17" s="13">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="4" ht="77.65" customHeight="1">
-      <c r="A4" t="s" s="9">
-        <v>6</v>
-      </c>
-      <c r="B4" s="10">
-        <v>1</v>
-      </c>
-      <c r="C4" t="b" s="11">
-        <v>0</v>
-      </c>
-      <c r="D4" s="11">
-        <f>IF(C4,B4,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" ht="16.65" customHeight="1">
-      <c r="A5" t="s" s="9">
-        <v>7</v>
-      </c>
-      <c r="B5" s="10">
-        <v>1</v>
-      </c>
-      <c r="C5" t="b" s="11">
-        <v>0</v>
-      </c>
-      <c r="D5" s="11">
-        <f>IF(C5,B5,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" ht="52.65" customHeight="1">
-      <c r="A6" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="B6" s="10">
-        <v>1</v>
-      </c>
-      <c r="C6" t="b" s="11">
-        <v>0</v>
-      </c>
-      <c r="D6" s="11">
-        <f>IF(C6,B6,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" ht="28.65" customHeight="1">
-      <c r="A7" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="B7" s="10">
-        <v>1</v>
-      </c>
-      <c r="C7" t="b" s="11">
-        <v>0</v>
-      </c>
-      <c r="D7" s="11">
-        <f>IF(C7,B7,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" ht="16.65" customHeight="1">
-      <c r="A8" t="s" s="9">
-        <v>10</v>
-      </c>
-      <c r="B8" s="10">
-        <v>1</v>
-      </c>
-      <c r="C8" t="b" s="11">
-        <v>0</v>
-      </c>
-      <c r="D8" s="11">
-        <f>IF(C8,B8,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" ht="40.65" customHeight="1">
-      <c r="A9" t="s" s="9">
-        <v>11</v>
-      </c>
-      <c r="B9" s="10">
-        <v>1</v>
-      </c>
-      <c r="C9" t="b" s="11">
-        <v>0</v>
-      </c>
-      <c r="D9" s="11">
-        <f>IF(C9,B9,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" ht="28.65" customHeight="1">
-      <c r="A10" t="s" s="9">
-        <v>12</v>
-      </c>
-      <c r="B10" s="10">
-        <v>1</v>
-      </c>
-      <c r="C10" t="b" s="11">
-        <v>0</v>
-      </c>
-      <c r="D10" s="11">
-        <f>IF(C10,B10,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" ht="40.65" customHeight="1">
-      <c r="A11" t="s" s="9">
-        <v>13</v>
-      </c>
-      <c r="B11" s="10">
-        <v>1</v>
-      </c>
-      <c r="C11" t="b" s="11">
-        <v>0</v>
-      </c>
-      <c r="D11" s="11">
-        <f>IF(C11,B11,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" ht="28.65" customHeight="1">
-      <c r="A12" t="s" s="9">
-        <v>14</v>
-      </c>
-      <c r="B12" s="10">
-        <v>1</v>
-      </c>
-      <c r="C12" t="b" s="11">
-        <v>0</v>
-      </c>
-      <c r="D12" s="11">
-        <f>IF(C12,B12,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" ht="28.65" customHeight="1">
-      <c r="A13" t="s" s="9">
-        <v>15</v>
-      </c>
-      <c r="B13" s="10">
-        <v>1</v>
-      </c>
-      <c r="C13" t="b" s="11">
-        <v>0</v>
-      </c>
-      <c r="D13" s="11">
-        <f>IF(C13,B13,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" ht="40.65" customHeight="1">
-      <c r="A14" t="s" s="9">
-        <v>16</v>
-      </c>
-      <c r="B14" s="10">
-        <v>1</v>
-      </c>
-      <c r="C14" t="b" s="11">
-        <v>0</v>
-      </c>
-      <c r="D14" s="11">
-        <f>IF(C14,B14,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" ht="52.65" customHeight="1">
-      <c r="A15" t="s" s="9">
-        <v>17</v>
-      </c>
-      <c r="B15" s="10">
-        <v>1</v>
-      </c>
-      <c r="C15" t="b" s="11">
-        <v>0</v>
-      </c>
-      <c r="D15" s="11">
-        <f>IF(C15,B15,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" ht="29.65" customHeight="1">
-      <c r="A16" t="s" s="9">
-        <v>18</v>
-      </c>
-      <c r="B16" s="10">
-        <v>1</v>
-      </c>
-      <c r="C16" t="b" s="11">
-        <v>0</v>
-      </c>
-      <c r="D16" s="11">
-        <f>IF(C16,B16,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" ht="31.65" customHeight="1">
-      <c r="A17" t="s" s="12">
-        <v>19</v>
-      </c>
-      <c r="B17" s="13">
-        <v>1</v>
-      </c>
-      <c r="C17" t="b" s="14">
-        <v>0</v>
-      </c>
-      <c r="D17" s="14">
-        <f>IF(C17,B17,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" ht="18.65" customHeight="1">
-      <c r="A18" t="s" s="15">
+    <row r="18" spans="1:4" ht="18.600000000000001" customHeight="1">
+      <c r="A18" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="16">
+      <c r="B18" s="15">
         <f>SUM(B3:B17)</f>
         <v>15</v>
       </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17">
+      <c r="C18" s="16"/>
+      <c r="D18" s="16">
         <f>SUM(D3:D17)</f>
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1852,6 +1922,6 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="landscape" pageOrder="downThenOver"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>